--- a/biology/Zoologie/Dipentium/Dipentium.xlsx
+++ b/biology/Zoologie/Dipentium/Dipentium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dipentium est un genre de coléoptères de la famille des Ptiliidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (3 mars 2021)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (3 mars 2021) :
 Dipentium amplicolle Johnson, 2008
 Dipentium castaneum (Britten, 1926)
 Dipentium constrictum Johnson, 2008
@@ -555,7 +569,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Colin Johnson, « An introduction to the Ptiliidae (Coleoptera) of New Zealand », New Zealand Journal of Zoology, Société royale de Nouvelle-Zélande et Taylor &amp; Francis, vol. 9, no 3,‎ juillet 1982, p. 333-376 (ISSN 0301-4223 et 1175-8821, DOI 10.1080/03014223.1982.10423865, lire en ligne)</t>
         </is>
